--- a/Экономическая часть/Круговая диаграмма.xlsx
+++ b/Экономическая часть/Круговая диаграмма.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r0bar\Documents\GitHub\MessageDeliveryService\Экономическая часть\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MessageDeliveryService\Экономическая часть\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Основная заработная плата исполнителя</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Отчисления на социальные нужды (страховые взносы)</t>
   </si>
@@ -51,6 +48,36 @@
   </si>
   <si>
     <t>Прочие расходы</t>
+  </si>
+  <si>
+    <t>Общая заработная плата исполнителя</t>
+  </si>
+  <si>
+    <t>Общая заработная плата исполнителя, 786 125 руб., 56,2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отчисления на социальные нужды (страховые взносы), 95 702 руб., 6,84% </t>
+  </si>
+  <si>
+    <t>Арендные платежи за производственные (офисные) помещения, 134 572 руб., 9,62%</t>
+  </si>
+  <si>
+    <t>Амортизация используемых основных средств и нематериальных активов, 78 985 руб., 5,65%</t>
+  </si>
+  <si>
+    <t>Расходы на модернизацию и приобретение основных средств, 0, 0%</t>
+  </si>
+  <si>
+    <t>Расходы на приобретение необходимого ПО, 0, 0%</t>
+  </si>
+  <si>
+    <t>Расходы на интернет, связь, 0, 0%</t>
+  </si>
+  <si>
+    <t>Расходы на канцелярские товары и расходные материалы, 4 200, 0,3%</t>
+  </si>
+  <si>
+    <t>Прочие расходы, 299 114, 21,39%</t>
   </si>
 </sst>
 </file>
@@ -161,16 +188,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -181,6 +202,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -213,7 +240,63 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Структура себестоимости программного продукта</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -443,328 +526,37 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.14188980202659895"/>
-                  <c:y val="-0.20016910507283753"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-8A1B-4AD1-97AE-10B4FFF02669}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="6.661144264983003E-2"/>
-                  <c:y val="-0.10764750037631343"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-8A1B-4AD1-97AE-10B4FFF02669}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="9.0732468688708698E-2"/>
-                  <c:y val="-5.3208152745663949E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-8A1B-4AD1-97AE-10B4FFF02669}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="5.1645527602253778E-2"/>
-                  <c:y val="3.8434476503717847E-4"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-8A1B-4AD1-97AE-10B4FFF02669}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.15659351691687645"/>
-                  <c:y val="2.7440659635635863E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-8A1B-4AD1-97AE-10B4FFF02669}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.5720793038527092E-2"/>
-                  <c:y val="1.549053470288784E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr>
-                <a:pattFill prst="pct75">
-                  <a:fgClr>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:sysClr>
-                  </a:fgClr>
-                  <a:bgClr>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
-                  </a:bgClr>
-                </a:pattFill>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ru-RU"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="7.1780256830127176E-2"/>
-                      <c:h val="3.6183054088618542E-2"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-8A1B-4AD1-97AE-10B4FFF02669}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.19260208931338377"/>
-                  <c:y val="3.8388938024447997E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-8A1B-4AD1-97AE-10B4FFF02669}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:sysClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$C$7:$C$15</c:f>
+              <c:f>Лист1!$C$19:$C$27</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>Основная заработная плата исполнителя</c:v>
+                  <c:v>Общая заработная плата исполнителя, 786 125 руб., 56,2%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Отчисления на социальные нужды (страховые взносы)</c:v>
+                  <c:v>Отчисления на социальные нужды (страховые взносы), 95 702 руб., 6,84% </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Арендные платежи за производственные (офисные) помещения</c:v>
+                  <c:v>Арендные платежи за производственные (офисные) помещения, 134 572 руб., 9,62%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Амортизация используемых основных средств и нематериальных активов</c:v>
+                  <c:v>Амортизация используемых основных средств и нематериальных активов, 78 985 руб., 5,65%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Расходы на модернизацию и приобретение основных средств</c:v>
+                  <c:v>Расходы на модернизацию и приобретение основных средств, 0, 0%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Расходы на приобретение необходимого ПО</c:v>
+                  <c:v>Расходы на приобретение необходимого ПО, 0, 0%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Расходы на интернет, связь</c:v>
+                  <c:v>Расходы на интернет, связь, 0, 0%</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Расходы на канцелярские товары и расходные материалы</c:v>
+                  <c:v>Расходы на канцелярские товары и расходные материалы, 4 200, 0,3%</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Прочие расходы</c:v>
+                  <c:v>Прочие расходы, 299 114, 21,39%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -776,7 +568,7 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>683587</c:v>
+                  <c:v>786125.04999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>95702</c:v>
@@ -1036,108 +828,37 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$C$7:$C$15</c:f>
+              <c:f>Лист1!$C$19:$C$27</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>Основная заработная плата исполнителя</c:v>
+                  <c:v>Общая заработная плата исполнителя, 786 125 руб., 56,2%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Отчисления на социальные нужды (страховые взносы)</c:v>
+                  <c:v>Отчисления на социальные нужды (страховые взносы), 95 702 руб., 6,84% </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Арендные платежи за производственные (офисные) помещения</c:v>
+                  <c:v>Арендные платежи за производственные (офисные) помещения, 134 572 руб., 9,62%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Амортизация используемых основных средств и нематериальных активов</c:v>
+                  <c:v>Амортизация используемых основных средств и нематериальных активов, 78 985 руб., 5,65%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Расходы на модернизацию и приобретение основных средств</c:v>
+                  <c:v>Расходы на модернизацию и приобретение основных средств, 0, 0%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Расходы на приобретение необходимого ПО</c:v>
+                  <c:v>Расходы на приобретение необходимого ПО, 0, 0%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Расходы на интернет, связь</c:v>
+                  <c:v>Расходы на интернет, связь, 0, 0%</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Расходы на канцелярские товары и расходные материалы</c:v>
+                  <c:v>Расходы на канцелярские товары и расходные материалы, 4 200, 0,3%</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Прочие расходы</c:v>
+                  <c:v>Прочие расходы, 299 114, 21,39%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1146,19 +867,19 @@
             <c:numRef>
               <c:f>Лист1!$E$7:$E$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>52.739358767930831</c:v>
+                  <c:v>56.204016868389239</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3834963403466087</c:v>
+                  <c:v>6.8422152713980902</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.38235219235882</c:v>
+                  <c:v>9.6212262387680916</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0938417372533191</c:v>
+                  <c:v>5.6471047149134774</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1170,10 +891,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.32403381987268559</c:v>
+                  <c:v>0.30027903429261643</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.076917142237733</c:v>
+                  <c:v>21.385157872238494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1193,28 +914,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7,38349634</c:v>
+                  <c:v>6,84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10,38235219</c:v>
+                  <c:v>9,62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6,093841737</c:v>
+                  <c:v>5,65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0,00</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0,00</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0,00</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0,32403382</c:v>
+                  <c:v>0,30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23,07691714</c:v>
+                  <c:v>21,39</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1237,78 +958,47 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-DB71-4302-AA49-5A0DE22B1F84}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:sysClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$C$19:$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Общая заработная плата исполнителя, 786 125 руб., 56,2%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Отчисления на социальные нужды (страховые взносы), 95 702 руб., 6,84% </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Арендные платежи за производственные (офисные) помещения, 134 572 руб., 9,62%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Амортизация используемых основных средств и нематериальных активов, 78 985 руб., 5,65%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Расходы на модернизацию и приобретение основных средств, 0, 0%</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Расходы на приобретение необходимого ПО, 0, 0%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Расходы на интернет, связь, 0, 0%</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Расходы на канцелярские товары и расходные материалы, 4 200, 0,3%</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Прочие расходы, 299 114, 21,39%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numLit>
               <c:formatCode>General</c:formatCode>
@@ -1330,7 +1020,7 @@
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -1346,7 +1036,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.6544331896274922"/>
+          <c:y val="0.16206441249289405"/>
+          <c:w val="0.33741111144409386"/>
+          <c:h val="0.70087125466467237"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1365,7 +1064,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="75000"/>
@@ -2079,16 +1778,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3462</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>17317</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2373,15 +2072,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:E16"/>
+  <dimension ref="C3:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="3" max="3" width="92.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="10" max="10" width="7.140625" customWidth="1"/>
@@ -2389,122 +2088,176 @@
     <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="1">
+        <v>683587</v>
+      </c>
+    </row>
     <row r="6" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="3:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="7" t="s">
-        <v>0</v>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="D7" s="1">
-        <v>683587</v>
-      </c>
-      <c r="E7" s="2">
+        <f>D4*1.15</f>
+        <v>786125.04999999993</v>
+      </c>
+      <c r="E7" s="8">
         <f t="shared" ref="E7:E15" si="0">D7/$D$16*100</f>
-        <v>52.739358767930831</v>
+        <v>56.204016868389239</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
         <v>95702</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="8">
         <f t="shared" si="0"/>
-        <v>7.3834963403466087</v>
+        <v>6.8422152713980902</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
         <v>134572</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="8">
         <f t="shared" si="0"/>
-        <v>10.38235219235882</v>
+        <v>9.6212262387680916</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
         <v>78986</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="8">
         <f t="shared" si="0"/>
-        <v>6.0938417372533191</v>
+        <v>5.6471047149134774</v>
       </c>
     </row>
     <row r="11" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="C11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
         <v>0</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="C12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3">
         <v>0</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="3:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="C13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
         <v>0</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
         <v>4200</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="8">
         <f t="shared" si="0"/>
-        <v>0.32403381987268559</v>
+        <v>0.30027903429261643</v>
       </c>
     </row>
     <row r="15" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2">
         <v>299114</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="8">
         <f t="shared" si="0"/>
-        <v>23.076917142237733</v>
+        <v>21.385157872238494</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="5">
-        <v>1296161</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="D16" s="7">
+        <f>SUM(D7:D15)</f>
+        <v>1398699.0499999998</v>
+      </c>
+      <c r="E16" s="4">
         <f>SUM(E7:E15)</f>
-        <v>99.999999999999986</v>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="3:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Экономическая часть/Круговая диаграмма.xlsx
+++ b/Экономическая часть/Круговая диаграмма.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MessageDeliveryService\Экономическая часть\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r0bar\Documents\GitHub\MessageDeliveryService\Экономическая часть\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1380" windowWidth="28800" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="2070" windowWidth="28800" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Отчисления на социальные нужды (страховые взносы)</t>
   </si>
@@ -63,15 +63,6 @@
   </si>
   <si>
     <t>Амортизация используемых основных средств и нематериальных активов, 78 985 руб., 5,65%</t>
-  </si>
-  <si>
-    <t>Расходы на модернизацию и приобретение основных средств, 0, 0%</t>
-  </si>
-  <si>
-    <t>Расходы на приобретение необходимого ПО, 0, 0%</t>
-  </si>
-  <si>
-    <t>Расходы на интернет, связь, 0, 0%</t>
   </si>
   <si>
     <t>Расходы на канцелярские товары и расходные материалы, 4 200, 0,3%</t>
@@ -544,13 +535,13 @@
                   <c:v>Амортизация используемых основных средств и нематериальных активов, 78 985 руб., 5,65%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Расходы на модернизацию и приобретение основных средств, 0, 0%</c:v>
+                  <c:v>Расходы на модернизацию и приобретение основных средств</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Расходы на приобретение необходимого ПО, 0, 0%</c:v>
+                  <c:v>Расходы на приобретение необходимого ПО</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Расходы на интернет, связь, 0, 0%</c:v>
+                  <c:v>Расходы на интернет, связь</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Расходы на канцелярские товары и расходные материалы, 4 200, 0,3%</c:v>
@@ -846,13 +837,13 @@
                   <c:v>Амортизация используемых основных средств и нематериальных активов, 78 985 руб., 5,65%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Расходы на модернизацию и приобретение основных средств, 0, 0%</c:v>
+                  <c:v>Расходы на модернизацию и приобретение основных средств</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Расходы на приобретение необходимого ПО, 0, 0%</c:v>
+                  <c:v>Расходы на приобретение необходимого ПО</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Расходы на интернет, связь, 0, 0%</c:v>
+                  <c:v>Расходы на интернет, связь</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Расходы на канцелярские товары и расходные материалы, 4 200, 0,3%</c:v>
@@ -982,13 +973,13 @@
                   <c:v>Амортизация используемых основных средств и нематериальных активов, 78 985 руб., 5,65%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Расходы на модернизацию и приобретение основных средств, 0, 0%</c:v>
+                  <c:v>Расходы на модернизацию и приобретение основных средств</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Расходы на приобретение необходимого ПО, 0, 0%</c:v>
+                  <c:v>Расходы на приобретение необходимого ПО</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Расходы на интернет, связь, 0, 0%</c:v>
+                  <c:v>Расходы на интернет, связь</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Расходы на канцелярские товары и расходные материалы, 4 200, 0,3%</c:v>
@@ -1015,7 +1006,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1040,9 +1030,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.6544331896274922"/>
-          <c:y val="0.16206441249289405"/>
-          <c:w val="0.33741111144409386"/>
+          <c:x val="0.61353960820693998"/>
+          <c:y val="0.16206434546254547"/>
+          <c:w val="0.36879320338517557"/>
           <c:h val="0.70087125466467237"/>
         </c:manualLayout>
       </c:layout>
@@ -1784,10 +1774,10 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>17317</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>51955</xdr:rowOff>
+      <xdr:rowOff>69273</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2074,8 +2064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2225,7 +2215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="3:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="6" t="s">
         <v>11</v>
       </c>
@@ -2237,27 +2227,27 @@
     </row>
     <row r="23" spans="3:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="6" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="3:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="6" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="3:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="3:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="3:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
